--- a/量化/广发基金/牛熊市分类/训练与测试模型/raw_data.xlsx
+++ b/量化/广发基金/牛熊市分类/训练与测试模型/raw_data.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1160" windowWidth="28800" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="9320" yWindow="1360" windowWidth="21600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="手动修改标签" sheetId="1" r:id="rId1"/>
-    <sheet name="raw" sheetId="6" r:id="rId2"/>
-    <sheet name="scaling" sheetId="2" r:id="rId3"/>
-    <sheet name="norm" sheetId="4" r:id="rId4"/>
-    <sheet name="scaling+norm" sheetId="3" r:id="rId5"/>
-    <sheet name="poly" sheetId="5" r:id="rId6"/>
+    <sheet name="标签调整记录" sheetId="7" r:id="rId2"/>
+    <sheet name="raw" sheetId="6" r:id="rId3"/>
+    <sheet name="scaling" sheetId="2" r:id="rId4"/>
+    <sheet name="norm" sheetId="4" r:id="rId5"/>
+    <sheet name="scaling+norm" sheetId="3" r:id="rId6"/>
+    <sheet name="poly" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>2006-1</t>
   </si>
@@ -411,6 +412,12 @@
   <si>
     <t>2016-6</t>
   </si>
+  <si>
+    <t>第一次改后的标签</t>
+  </si>
+  <si>
+    <t>第二次调整结果</t>
+  </si>
 </sst>
 </file>
 
@@ -445,9 +452,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,12 +740,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1">
+      <c r="A1" s="3">
         <v>2</v>
       </c>
       <c r="B1">
@@ -773,8 +789,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>206882931823</v>
@@ -814,8 +830,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="3">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>222194705371</v>
@@ -855,7 +871,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4">
@@ -896,7 +912,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5">
@@ -937,8 +953,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" s="3">
+        <v>1</v>
       </c>
       <c r="B6">
         <v>460787563328</v>
@@ -978,7 +994,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7">
@@ -1019,7 +1035,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8">
@@ -1060,8 +1076,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
+      <c r="A9" s="3">
+        <v>1</v>
       </c>
       <c r="B9">
         <v>312988020664</v>
@@ -1101,8 +1117,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
+      <c r="A10" s="3">
+        <v>1</v>
       </c>
       <c r="B10">
         <v>321847441261</v>
@@ -1142,7 +1158,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11">
@@ -1183,7 +1199,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12">
@@ -1224,7 +1240,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13">
@@ -1265,7 +1281,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14">
@@ -1306,7 +1322,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15">
@@ -1347,7 +1363,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16">
@@ -1388,7 +1404,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17">
@@ -1429,8 +1445,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2</v>
+      <c r="A18" s="3">
+        <v>1</v>
       </c>
       <c r="B18">
         <v>2746710794172</v>
@@ -1470,7 +1486,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>2</v>
       </c>
       <c r="B19">
@@ -1511,7 +1527,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>2</v>
       </c>
       <c r="B20">
@@ -1552,7 +1568,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>2</v>
       </c>
       <c r="B21">
@@ -1593,7 +1609,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>0</v>
       </c>
       <c r="B22">
@@ -1634,8 +1650,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1</v>
+      <c r="A23" s="3">
+        <v>0</v>
       </c>
       <c r="B23">
         <v>1391214782010</v>
@@ -1675,7 +1691,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>0</v>
       </c>
       <c r="B24">
@@ -1716,8 +1732,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1</v>
+      <c r="A25" s="3">
+        <v>0</v>
       </c>
       <c r="B25">
         <v>2416082162101</v>
@@ -1757,7 +1773,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>0</v>
       </c>
       <c r="B26">
@@ -1798,7 +1814,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>0</v>
       </c>
       <c r="B27">
@@ -1839,7 +1855,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>0</v>
       </c>
       <c r="B28">
@@ -1880,7 +1896,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>0</v>
       </c>
       <c r="B29">
@@ -1921,7 +1937,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>0</v>
       </c>
       <c r="B30">
@@ -1962,7 +1978,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>0</v>
       </c>
       <c r="B31">
@@ -2003,7 +2019,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>0</v>
       </c>
       <c r="B32">
@@ -2044,7 +2060,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>0</v>
       </c>
       <c r="B33">
@@ -2085,7 +2101,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="3">
         <v>0</v>
       </c>
       <c r="B34">
@@ -2126,8 +2142,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1</v>
+      <c r="A35" s="3">
+        <v>2</v>
       </c>
       <c r="B35">
         <v>951080207193</v>
@@ -2167,8 +2183,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2</v>
+      <c r="A36" s="3">
+        <v>1</v>
       </c>
       <c r="B36">
         <v>1173198111295</v>
@@ -2208,7 +2224,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>2</v>
       </c>
       <c r="B37">
@@ -2249,7 +2265,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="3">
         <v>2</v>
       </c>
       <c r="B38">
@@ -2290,7 +2306,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="3">
         <v>2</v>
       </c>
       <c r="B39">
@@ -2331,7 +2347,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="3">
         <v>2</v>
       </c>
       <c r="B40">
@@ -2372,7 +2388,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="3">
         <v>2</v>
       </c>
       <c r="B41">
@@ -2413,7 +2429,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="3">
         <v>2</v>
       </c>
       <c r="B42">
@@ -2454,8 +2470,8 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>0</v>
+      <c r="A43" s="3">
+        <v>1</v>
       </c>
       <c r="B43">
         <v>3869486961201</v>
@@ -2495,7 +2511,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="3">
         <v>0</v>
       </c>
       <c r="B44">
@@ -2536,7 +2552,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="3">
         <v>2</v>
       </c>
       <c r="B45">
@@ -2577,7 +2593,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="3">
         <v>2</v>
       </c>
       <c r="B46">
@@ -2618,7 +2634,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="3">
         <v>2</v>
       </c>
       <c r="B47">
@@ -2659,7 +2675,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="3">
         <v>1</v>
       </c>
       <c r="B48">
@@ -2700,8 +2716,8 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1</v>
+      <c r="A49" s="3">
+        <v>0</v>
       </c>
       <c r="B49">
         <v>2138035810718</v>
@@ -2741,7 +2757,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="3">
         <v>1</v>
       </c>
       <c r="B50">
@@ -2782,7 +2798,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="3">
         <v>1</v>
       </c>
       <c r="B51">
@@ -2823,7 +2839,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="3">
         <v>0</v>
       </c>
       <c r="B52">
@@ -2864,7 +2880,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="3">
         <v>0</v>
       </c>
       <c r="B53">
@@ -2905,8 +2921,8 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1</v>
+      <c r="A54" s="3">
+        <v>0</v>
       </c>
       <c r="B54">
         <v>872462779818</v>
@@ -2946,8 +2962,8 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1</v>
+      <c r="A55" s="3">
+        <v>2</v>
       </c>
       <c r="B55">
         <v>1220926567069</v>
@@ -2987,8 +3003,8 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>2</v>
+      <c r="A56" s="3">
+        <v>1</v>
       </c>
       <c r="B56">
         <v>1625275750266</v>
@@ -3028,8 +3044,8 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>2</v>
+      <c r="A57" s="3">
+        <v>1</v>
       </c>
       <c r="B57">
         <v>1549059804419</v>
@@ -3069,7 +3085,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="3">
         <v>1</v>
       </c>
       <c r="B58">
@@ -3110,7 +3126,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="3">
         <v>1</v>
       </c>
       <c r="B59">
@@ -3151,7 +3167,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="3">
         <v>1</v>
       </c>
       <c r="B60">
@@ -3192,7 +3208,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="3">
         <v>1</v>
       </c>
       <c r="B61">
@@ -3233,7 +3249,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="3">
         <v>1</v>
       </c>
       <c r="B62">
@@ -3274,7 +3290,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="3">
         <v>1</v>
       </c>
       <c r="B63">
@@ -3315,7 +3331,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="3">
         <v>1</v>
       </c>
       <c r="B64">
@@ -3356,8 +3372,8 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>1</v>
+      <c r="A65" s="3">
+        <v>0</v>
       </c>
       <c r="B65">
         <v>1204923220571</v>
@@ -3397,7 +3413,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="3">
         <v>1</v>
       </c>
       <c r="B66">
@@ -3438,7 +3454,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="3">
         <v>1</v>
       </c>
       <c r="B67">
@@ -3479,7 +3495,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="3">
         <v>0</v>
       </c>
       <c r="B68">
@@ -3520,7 +3536,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="3">
         <v>0</v>
       </c>
       <c r="B69">
@@ -3561,8 +3577,8 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>0</v>
+      <c r="A70" s="3">
+        <v>1</v>
       </c>
       <c r="B70">
         <v>754469272397</v>
@@ -3602,7 +3618,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="3">
         <v>0</v>
       </c>
       <c r="B71">
@@ -3643,7 +3659,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="3">
         <v>1</v>
       </c>
       <c r="B72">
@@ -3684,7 +3700,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="3">
         <v>1</v>
       </c>
       <c r="B73">
@@ -3725,7 +3741,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="3">
         <v>1</v>
       </c>
       <c r="B74">
@@ -3766,7 +3782,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="3">
         <v>1</v>
       </c>
       <c r="B75">
@@ -3807,7 +3823,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="3">
         <v>1</v>
       </c>
       <c r="B76">
@@ -3848,7 +3864,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="3">
         <v>1</v>
       </c>
       <c r="B77">
@@ -3889,7 +3905,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="3">
         <v>0</v>
       </c>
       <c r="B78">
@@ -3930,7 +3946,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="3">
         <v>0</v>
       </c>
       <c r="B79">
@@ -3971,7 +3987,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="3">
         <v>1</v>
       </c>
       <c r="B80">
@@ -4012,7 +4028,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="3">
         <v>1</v>
       </c>
       <c r="B81">
@@ -4053,7 +4069,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="3">
         <v>1</v>
       </c>
       <c r="B82">
@@ -4094,8 +4110,8 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2</v>
+      <c r="A83" s="3">
+        <v>1</v>
       </c>
       <c r="B83">
         <v>615120708028</v>
@@ -4135,7 +4151,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="3">
         <v>2</v>
       </c>
       <c r="B84">
@@ -4176,7 +4192,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="3">
         <v>2</v>
       </c>
       <c r="B85">
@@ -4217,7 +4233,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="3">
         <v>1</v>
       </c>
       <c r="B86">
@@ -4258,7 +4274,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="3">
         <v>0</v>
       </c>
       <c r="B87">
@@ -4299,7 +4315,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="3">
         <v>1</v>
       </c>
       <c r="B88">
@@ -4340,8 +4356,8 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>0</v>
+      <c r="A89" s="3">
+        <v>1</v>
       </c>
       <c r="B89">
         <v>1491106820340</v>
@@ -4381,7 +4397,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="3">
         <v>0</v>
       </c>
       <c r="B90">
@@ -4422,7 +4438,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="3">
         <v>1</v>
       </c>
       <c r="B91">
@@ -4463,7 +4479,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="3">
         <v>2</v>
       </c>
       <c r="B92">
@@ -4504,7 +4520,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="3">
         <v>1</v>
       </c>
       <c r="B93">
@@ -4545,7 +4561,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="3">
         <v>1</v>
       </c>
       <c r="B94">
@@ -4586,7 +4602,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="3">
         <v>1</v>
       </c>
       <c r="B95">
@@ -4627,7 +4643,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="3">
         <v>1</v>
       </c>
       <c r="B96">
@@ -4668,7 +4684,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="3">
         <v>1</v>
       </c>
       <c r="B97">
@@ -4709,7 +4725,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="3">
         <v>1</v>
       </c>
       <c r="B98">
@@ -4750,7 +4766,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="3">
         <v>1</v>
       </c>
       <c r="B99">
@@ -4791,7 +4807,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="3">
         <v>1</v>
       </c>
       <c r="B100">
@@ -4832,7 +4848,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="3">
         <v>1</v>
       </c>
       <c r="B101">
@@ -4873,7 +4889,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="3">
         <v>1</v>
       </c>
       <c r="B102">
@@ -4914,7 +4930,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="3">
         <v>1</v>
       </c>
       <c r="B103">
@@ -4955,8 +4971,8 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>2</v>
+      <c r="A104" s="3">
+        <v>1</v>
       </c>
       <c r="B104">
         <v>1812571194446</v>
@@ -4996,7 +5012,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="3">
         <v>1</v>
       </c>
       <c r="B105">
@@ -5037,7 +5053,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="3">
         <v>2</v>
       </c>
       <c r="B106">
@@ -5078,7 +5094,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="3">
         <v>2</v>
       </c>
       <c r="B107">
@@ -5119,7 +5135,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="3">
         <v>2</v>
       </c>
       <c r="B108">
@@ -5160,8 +5176,8 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>2</v>
+      <c r="A109" s="3">
+        <v>1</v>
       </c>
       <c r="B109">
         <v>7003939966871</v>
@@ -5201,7 +5217,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="3">
         <v>2</v>
       </c>
       <c r="B110">
@@ -5242,7 +5258,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="3">
         <v>2</v>
       </c>
       <c r="B111">
@@ -5283,7 +5299,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="3">
         <v>2</v>
       </c>
       <c r="B112">
@@ -5324,8 +5340,8 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>0</v>
+      <c r="A113" s="3">
+        <v>1</v>
       </c>
       <c r="B113">
         <v>12110737565875</v>
@@ -5365,7 +5381,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="3">
         <v>0</v>
       </c>
       <c r="B114">
@@ -5406,7 +5422,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="3">
         <v>0</v>
       </c>
       <c r="B115">
@@ -5447,7 +5463,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="3">
         <v>0</v>
       </c>
       <c r="B116">
@@ -5488,8 +5504,8 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>2</v>
+      <c r="A117" s="3">
+        <v>1</v>
       </c>
       <c r="B117">
         <v>3493767794350</v>
@@ -5529,8 +5545,8 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>1</v>
+      <c r="A118" s="3">
+        <v>2</v>
       </c>
       <c r="B118">
         <v>3722381175148</v>
@@ -5570,8 +5586,8 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>2</v>
+      <c r="A119" s="3">
+        <v>1</v>
       </c>
       <c r="B119">
         <v>5852576451685</v>
@@ -5611,8 +5627,8 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>0</v>
+      <c r="A120" s="3">
+        <v>1</v>
       </c>
       <c r="B120">
         <v>4535081044751</v>
@@ -5652,7 +5668,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="3">
         <v>0</v>
       </c>
       <c r="B121">
@@ -5693,8 +5709,8 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>2</v>
+      <c r="A122" s="3">
+        <v>1</v>
       </c>
       <c r="B122">
         <v>1681359748025</v>
@@ -5734,8 +5750,8 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>1</v>
+      <c r="A123" s="3">
+        <v>2</v>
       </c>
       <c r="B123">
         <v>3268458384850</v>
@@ -5775,7 +5791,7 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" s="3">
         <v>1</v>
       </c>
       <c r="B124">
@@ -5816,7 +5832,7 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" s="3">
         <v>1</v>
       </c>
       <c r="B125">
@@ -5857,7 +5873,7 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="3">
         <v>1</v>
       </c>
       <c r="B126">
@@ -5903,6 +5919,2175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L126"/>
   <sheetViews>
@@ -10705,7 +12890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L126"/>
   <sheetViews>
@@ -15508,7 +17693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L126"/>
   <sheetViews>
@@ -20311,7 +22496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L126"/>
   <sheetViews>
@@ -25114,7 +27299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA126"/>
   <sheetViews>
